--- a/excels/abilities/hero_passive.xlsx
+++ b/excels/abilities/hero_passive.xlsx
@@ -27,7 +27,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>物品品质</t>
+  </si>
+  <si>
+    <t>出现概率（同品质有度有效 自动稀释）</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>元素类型
+1火2冰3雷4风5光6暗</t>
+  </si>
+  <si>
+    <t>伤害公式</t>
+  </si>
+  <si>
+    <t>物品KV值[</t>
+  </si>
+  <si>
+    <t>arms_cd</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>魔法消耗</t>
+  </si>
+  <si>
+    <t>施法距离AbilityCastRange</t>
+  </si>
+  <si>
+    <t>基类</t>
+  </si>
+  <si>
+    <t>脚本</t>
+  </si>
+  <si>
+    <t>物品属性</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>法力值</t>
+  </si>
+  <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>法力回复</t>
+  </si>
+  <si>
+    <t>护甲值</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -101,9 +189,6 @@
     <t>AbilityBehavior</t>
   </si>
   <si>
-    <t>ItemDroppable</t>
-  </si>
-  <si>
     <t>AttributeValues[{]</t>
   </si>
   <si>
@@ -134,36 +219,69 @@
     <t>ArmorCommon</t>
   </si>
   <si>
-    <t>hero_</t>
-  </si>
-  <si>
-    <t>点击选择武器</t>
-  </si>
-  <si>
-    <t>开始选择你的第一个物品吧</t>
-  </si>
-  <si>
-    <t>null null</t>
+    <t>passive_omniknight</t>
+  </si>
+  <si>
+    <t>洗礼</t>
+  </si>
+  <si>
+    <t>治疗自身，并伤害周围敌军。
+cd：4秒/4秒/4秒/3秒/2秒
+系数：伤害系数：100%/125%/150%/175%/225%攻击力·光元素伤害
+治疗系数：25%/30%/35%/40%/50%攻击力
+作用范围：直径260码
+技能类型：范围型/伤害型（英雄5星解锁）</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>blighted_spirit</t>
+    <t>4 4 4 3 2</t>
+  </si>
+  <si>
+    <t>omniknight_purification</t>
+  </si>
+  <si>
+    <t>SLV*0.25+0.75*AttackDamage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damage_coefficient 100 125 150 175 225 </t>
+  </si>
+  <si>
+    <t>health_coefficient 25 30 35 40 50</t>
+  </si>
+  <si>
+    <t>aoe_radius 260</t>
   </si>
   <si>
     <t>ability_lua</t>
   </si>
   <si>
-    <t>abilities/arms/arms_t0_1</t>
+    <t>abilities/hero_passive/passive_omniknight</t>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
-    <t>{
-"Base" "0"
-}</t>
+    <t>passive_abaddon</t>
+  </si>
+  <si>
+    <t>魔霭诅咒</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>abaddon_frostmourne</t>
+  </si>
+  <si>
+    <t>passive_zuus</t>
+  </si>
+  <si>
+    <t>霹雳之手</t>
+  </si>
+  <si>
+    <t>zuus_lightning_hands</t>
   </si>
 </sst>
 </file>
@@ -176,7 +294,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +318,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -556,11 +681,37 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -605,6 +756,19 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -729,7 +893,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,137 +912,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,47 +1053,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -978,6 +1165,7 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1303,226 +1491,524 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="22.675" customWidth="1"/>
+    <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="38.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.675" customWidth="1"/>
+    <col min="5" max="5" width="12.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.175" customWidth="1"/>
+    <col min="7" max="7" width="12.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="12.675" customWidth="1"/>
+    <col min="10" max="10" width="18.175" customWidth="1"/>
+    <col min="11" max="11" width="25.8416666666667" customWidth="1"/>
+    <col min="12" max="12" width="24.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="29.5083333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.175" customWidth="1"/>
+    <col min="15" max="15" width="31.675" customWidth="1"/>
+    <col min="16" max="16" width="36.375" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="22" width="6.24166666666667" customWidth="1"/>
+    <col min="23" max="23" width="8.00833333333333" customWidth="1"/>
+    <col min="24" max="24" width="18.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="27.175" customWidth="1"/>
+    <col min="26" max="26" width="13.175" customWidth="1"/>
+    <col min="27" max="27" width="39.8416666666667" customWidth="1"/>
+    <col min="28" max="28" width="50.625" customWidth="1"/>
+    <col min="29" max="29" width="21.3416666666667" customWidth="1"/>
+    <col min="30" max="30" width="17.0083333333333" customWidth="1"/>
+    <col min="31" max="31" width="15.175" customWidth="1"/>
+    <col min="32" max="32" width="15.3416666666667" customWidth="1"/>
+    <col min="33" max="33" width="14.5083333333333" customWidth="1"/>
+    <col min="34" max="34" width="15.5083333333333" customWidth="1"/>
+    <col min="35" max="35" width="14.675" customWidth="1"/>
+    <col min="36" max="36" width="15.675" customWidth="1"/>
+    <col min="37" max="37" width="14.8416666666667" customWidth="1"/>
+    <col min="38" max="38" width="17.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:41">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:40">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="7">
+      <c r="P1" s="4">
         <v>2</v>
       </c>
-      <c r="R1" s="7">
+      <c r="Q1" s="4">
         <v>3</v>
       </c>
-      <c r="S1" s="7">
+      <c r="R1" s="4">
         <v>4</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Z1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AD1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AK1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AL1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="17"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:39">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="55.5" customHeight="1" spans="1:42">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>3</v>
+      </c>
+      <c r="R2" s="10">
+        <v>4</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="132" spans="1:40">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="9">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="I3" s="8">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="12">
         <v>0</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="15"/>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
+    </row>
+    <row r="4" ht="33" spans="1:40">
+      <c r="A4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="8">
+        <v>6</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
+    </row>
+    <row r="5" ht="33" spans="1:40">
+      <c r="A5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2">
+  <conditionalFormatting sqref="A1:A5">
     <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="arms_t1">
       <formula>NOT(ISERROR(SEARCH("arms_t1",A1)))</formula>
     </cfRule>
@@ -1551,7 +2037,7 @@
       <formula>NOT(ISERROR(SEARCH("arms_t9",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G2">
+  <conditionalFormatting sqref="F1:F5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1563,7 +2049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2">
+  <conditionalFormatting sqref="G1:G5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1573,7 +2059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2">
+  <conditionalFormatting sqref="H1:H5">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1583,7 +2069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K2">
+  <conditionalFormatting sqref="J1:J5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1595,7 +2081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M2">
+  <conditionalFormatting sqref="L1:L5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
